--- a/Расчет питания.xlsx
+++ b/Расчет питания.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unsovich/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unsovich/Downloads/CalculateMM1/CalculateMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD04F4B-8A08-3040-A74B-67C8D723B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846780D-52E6-944D-A8F2-66FB32E4FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий метаболизм" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>слабое загущение
@@ -65,6 +66,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>консистенция сиропа
@@ -79,6 +81,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>консистенция меда
@@ -93,6 +96,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>консистенция пудинга
@@ -107,6 +111,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>сироп
@@ -121,6 +126,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>крем
@@ -135,6 +141,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>пудинг
@@ -324,9 +331,6 @@
   </si>
   <si>
     <t>Количество ложек в банке, шт</t>
-  </si>
-  <si>
-    <t>Количество ложек, шт</t>
   </si>
   <si>
     <t>Количество воды, мл</t>
@@ -583,6 +587,9 @@
   <si>
     <t>Суппортан напиток тропические фрукты 200 мл</t>
   </si>
+  <si>
+    <t>Количество ложек в порци, шт</t>
+  </si>
 </sst>
 </file>
 
@@ -591,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,27 +609,32 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -633,6 +645,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,46 +653,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1143,6 +1171,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,15 +1195,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1387,8 +1415,8 @@
   </sheetPr>
   <dimension ref="A1:R1006"/>
   <sheetViews>
-    <sheetView topLeftCell="M5" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1836,7 +1864,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="209">
+    <row r="19" spans="1:18" ht="170">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1920,7 +1948,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="92">
+    <row r="23" spans="1:18" ht="79">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -9257,8 +9285,8 @@
   </sheetPr>
   <dimension ref="A1:AL970"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -9269,30 +9297,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="70" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
@@ -9328,46 +9356,46 @@
         <v>58</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>67</v>
+      <c r="N2" s="21" t="s">
+        <v>60</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
@@ -9392,7 +9420,7 @@
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="29">
         <v>6</v>
@@ -9459,7 +9487,7 @@
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="29">
         <v>4.5</v>
@@ -9525,7 +9553,7 @@
     </row>
     <row r="5" spans="1:38" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="38">
         <v>7.9</v>
@@ -9568,7 +9596,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="S5" s="71"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="60"/>
       <c r="U5" s="26"/>
       <c r="V5" s="27"/>
@@ -9591,7 +9619,7 @@
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="38">
         <v>7.9</v>
@@ -9657,7 +9685,7 @@
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="38">
         <v>7.9</v>
@@ -9723,7 +9751,7 @@
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="38">
         <v>7.9</v>
@@ -9789,7 +9817,7 @@
     </row>
     <row r="9" spans="1:38" ht="15.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="38">
         <v>7.3</v>
@@ -9865,7 +9893,7 @@
     </row>
     <row r="10" spans="1:38" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="38">
         <v>4.5</v>
@@ -9931,7 +9959,7 @@
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="38">
         <v>4.3</v>
@@ -10003,7 +10031,7 @@
     </row>
     <row r="12" spans="1:38" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="38">
         <v>4.3</v>
@@ -10069,7 +10097,7 @@
     </row>
     <row r="13" spans="1:38" ht="15.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="29">
         <v>4.5999999999999996</v>
@@ -10135,7 +10163,7 @@
     </row>
     <row r="14" spans="1:38" ht="15.75" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="29">
         <v>4</v>
@@ -10207,7 +10235,7 @@
     </row>
     <row r="15" spans="1:38" ht="15.75" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="29">
         <v>4</v>
@@ -10279,7 +10307,7 @@
     </row>
     <row r="16" spans="1:38" ht="15.75" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="38">
         <v>5</v>
@@ -10351,7 +10379,7 @@
     </row>
     <row r="17" spans="1:38" ht="15.75" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="38">
         <v>4.5999999999999996</v>
@@ -10417,7 +10445,7 @@
     </row>
     <row r="18" spans="1:38" ht="15.75" customHeight="1">
       <c r="A18" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="40">
         <v>6.4</v>
@@ -10480,26 +10508,26 @@
       <c r="AL18" s="27"/>
     </row>
     <row r="19" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A19" s="72" t="s">
-        <v>84</v>
+      <c r="A19" s="77" t="s">
+        <v>83</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
@@ -10522,8 +10550,8 @@
       <c r="AL19" s="27"/>
     </row>
     <row r="20" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A20" s="73" t="s">
-        <v>85</v>
+      <c r="A20" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="47">
         <v>1.2</v>
@@ -10574,7 +10602,7 @@
       <c r="AL20" s="27"/>
     </row>
     <row r="21" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A21" s="74"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="29">
         <v>1.2</v>
       </c>
@@ -10624,7 +10652,7 @@
       <c r="AL21" s="27"/>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A22" s="74"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="29">
         <v>1.2</v>
       </c>
@@ -10674,7 +10702,7 @@
       <c r="AL22" s="27"/>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A23" s="75"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="29">
         <v>1.2</v>
       </c>
@@ -10724,8 +10752,8 @@
       <c r="AL23" s="27"/>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A24" s="76" t="s">
-        <v>86</v>
+      <c r="A24" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="B24" s="29">
         <v>4.3</v>
@@ -10777,7 +10805,7 @@
       <c r="AL24" s="27"/>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A25" s="74"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="29">
         <v>4.3</v>
       </c>
@@ -10828,7 +10856,7 @@
       <c r="AL25" s="27"/>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="44">
         <v>4.3</v>
       </c>
@@ -10926,7 +10954,10 @@
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="H28" s="27">
+        <f>G3/F3</f>
+        <v>1.2</v>
+      </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -10966,7 +10997,10 @@
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="H29" s="27">
+        <f t="shared" ref="H29:H37" si="5">G4/F4</f>
+        <v>1.1111111111111112</v>
+      </c>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -11006,7 +11040,10 @@
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="H30" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761905</v>
+      </c>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -11046,7 +11083,10 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761905</v>
+      </c>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -11086,7 +11126,10 @@
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="H32" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761905</v>
+      </c>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -11126,7 +11169,10 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="H33" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761905</v>
+      </c>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -11166,7 +11212,10 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="H34" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -11206,7 +11255,10 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112</v>
+      </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -11246,7 +11298,10 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1764705882352942</v>
+      </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -11286,7 +11341,10 @@
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112</v>
+      </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -48641,13 +48699,13 @@
   </sheetData>
   <autoFilter ref="A1:R26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="7">
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A19:R19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A19:R19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -48681,7 +48739,9 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -48691,300 +48751,300 @@
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="57" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="57" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="57" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="57" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="57" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="57" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="57" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="57" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="57" t="s">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="57" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="57" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="57" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="57" t="s">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A17" s="57" t="s">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A18" s="57" t="s">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19" s="57" t="s">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A20" s="57" t="s">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21" s="57" t="s">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22" s="57" t="s">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A23" s="57" t="s">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="57" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A24" s="57" t="s">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A25" s="57" t="s">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A26" s="57" t="s">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="57" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A27" s="57" t="s">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A28" s="57" t="s">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A29" s="57" t="s">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A30" s="57" t="s">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="57" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A31" s="57" t="s">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A32" s="57" t="s">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="57" t="s">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="57" t="s">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="57" t="s">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="57" t="s">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="57" t="s">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="57" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="57" t="s">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="57" t="s">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="57" t="s">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="57" t="s">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="57" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="57" t="s">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="57" t="s">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="57" t="s">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="57" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45" s="57" t="s">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46" s="57" t="s">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="57" t="s">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48" s="57" t="s">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49" s="57" t="s">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="57" t="s">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="57" t="s">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A52" s="57" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52" s="57" t="s">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A53" s="57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="57" t="s">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A54" s="57" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54" s="57" t="s">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A55" s="57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55" s="57" t="s">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A56" s="57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A56" s="57" t="s">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A57" s="57" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="57" t="s">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A58" s="57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="57" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
